--- a/Graph Images/data_and_graphs.xlsx
+++ b/Graph Images/data_and_graphs.xlsx
@@ -342,11 +342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98360064"/>
-        <c:axId val="98359488"/>
+        <c:axId val="90805888"/>
+        <c:axId val="90806464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98360064"/>
+        <c:axId val="90805888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -375,12 +375,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98359488"/>
+        <c:crossAx val="90806464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98359488"/>
+        <c:axId val="90806464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -410,7 +410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98360064"/>
+        <c:crossAx val="90805888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -659,11 +659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="91216640"/>
-        <c:axId val="91216064"/>
+        <c:axId val="103825984"/>
+        <c:axId val="103826560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91216640"/>
+        <c:axId val="103825984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,12 +692,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91216064"/>
+        <c:crossAx val="103826560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91216064"/>
+        <c:axId val="103826560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +727,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91216640"/>
+        <c:crossAx val="103825984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -976,11 +976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="90367104"/>
-        <c:axId val="90366528"/>
+        <c:axId val="103828864"/>
+        <c:axId val="103829440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90367104"/>
+        <c:axId val="103828864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1009,12 +1009,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90366528"/>
+        <c:crossAx val="103829440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90366528"/>
+        <c:axId val="103829440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1044,7 +1044,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90367104"/>
+        <c:crossAx val="103828864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1450,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R38" sqref="R38"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
